--- a/Datos/Database by set/Set with text box/Xlsx sets/Hobby Japan Promos (PHJ).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Hobby Japan Promos (PHJ).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,196 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Goblin Mutant</t>
+          <t>('Goblin Mutant', ['{2}{R}{R}', 'Creature — Goblin Mutant', 'Trample', 'Goblin Mutant can’t attack if defending player controls an untapped creature with power 3 or greater.', 'Goblin Mutant can’t block creatures with power 3 or greater.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}{R}</t>
+          <t>("Ihsan's Shade", ['{3}{B}{B}{B}', 'Legendary Creature — Shade Knight', 'Protection from white', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Goblin Mutant</t>
+          <t>('Krovikan Vampire', ['{3}{B}{B}', 'Creature — Vampire', 'At the beginning of each end step, if a creature dealt damage by Krovikan Vampire this turn died, put that card onto the battlefield under your control. Sacrifice it when you lose control of Krovikan Vampire.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trample</t>
+          <t>('Surge of Strength', ['{R}{G}', 'Instant', 'As an additional cost to cast this spell, discard a red or green card.', 'Target creature gains trample and gets +X/+0 until end of turn, where X is that creature’s converted mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Goblin Mutant can’t attack if defending player controls an untapped creature with power 3 or greater.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Goblin Mutant can’t block creatures with power 3 or greater.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ihsan's Shade</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Shade Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Protection from white</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Krovikan Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>At the beginning of each end step, if a creature dealt damage by Krovikan Vampire this turn died, put that card onto the battlefield under your control. Sacrifice it when you lose control of Krovikan Vampire.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Surge of Strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, discard a red or green card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Target creature gains trample and gets +X/+0 until end of turn, where X is that creature’s converted mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Yavimaya Ants</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Trample, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cumulative upkeep {G}{G} (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5/1</t>
+          <t>('Yavimaya Ants', ['{2}{G}{G}', 'Creature — Insect', 'Trample, haste', 'Cumulative upkeep {G}{G} (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)', '5/1'])</t>
         </is>
       </c>
     </row>
